--- a/2024-3q/Сейко Олег - Сводные оценки.xlsx
+++ b/2024-3q/Сейко Олег - Сводные оценки.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>Имя</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Ларкович Алексей Игоревич</t>
+  </si>
+  <si>
+    <t>Абрамцов Роман</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W4" sqref="W4"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,38 +983,76 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>B+</v>
       </c>
       <c r="G5" s="17">
         <f t="array" ref="G5">SUM(H5:X5*H$3:X$3)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16">
+        <v>4</v>
+      </c>
+      <c r="J5" s="16">
+        <v>4</v>
+      </c>
+      <c r="K5" s="16">
+        <v>4</v>
+      </c>
+      <c r="L5" s="16">
+        <v>3</v>
+      </c>
+      <c r="M5" s="16">
+        <v>3</v>
+      </c>
+      <c r="N5" s="16">
+        <v>5</v>
+      </c>
+      <c r="O5" s="16">
+        <v>4</v>
+      </c>
+      <c r="P5" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>2</v>
+      </c>
+      <c r="R5" s="16">
+        <v>4</v>
+      </c>
+      <c r="S5" s="16">
+        <v>5</v>
+      </c>
+      <c r="T5" s="16">
+        <v>4</v>
+      </c>
+      <c r="U5" s="16">
+        <v>4</v>
+      </c>
+      <c r="V5" s="16">
+        <v>5</v>
+      </c>
+      <c r="W5" s="16">
+        <v>5</v>
+      </c>
+      <c r="X5" s="16">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -4008,7 +4049,7 @@
       </c>
       <c r="B6" s="13">
         <f t="array" ref="B6">SUM(IF(Результаты!$E$4:$E$90=$A6,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="13">
         <f t="array" ref="C6">SUM(IF(Результаты!F$4:F$90=$A6,1,0))</f>
@@ -4029,7 +4070,7 @@
       </c>
       <c r="C7" s="13">
         <f t="array" ref="C7">SUM(IF(Результаты!F$4:F$90=$A7,1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <f t="array" ref="D7">IF(SUM(IF(Результаты!$E$4:$E$87="В+",1,0))&gt;0,"Есть русские буквы","")</f>
@@ -4059,11 +4100,11 @@
       </c>
       <c r="B9" s="15">
         <f>SUM(B3:B8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="15">
         <f>SUM(C3:C8)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
